--- a/Data_frame/balancos_definitivos/RNEW11.xlsx
+++ b/Data_frame/balancos_definitivos/RNEW11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF80"/>
+  <dimension ref="A1:BI80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +724,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -902,6 +917,15 @@
       <c r="BF2" t="n">
         <v>2732436.992</v>
       </c>
+      <c r="BG2" t="n">
+        <v>3076137.984</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>2936739.072</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>2962825.984</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1080,6 +1104,15 @@
       <c r="BF3" t="n">
         <v>89378</v>
       </c>
+      <c r="BG3" t="n">
+        <v>138882</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>107087</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>161231.008</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1258,6 +1291,15 @@
       <c r="BF4" t="n">
         <v>27578</v>
       </c>
+      <c r="BG4" t="n">
+        <v>17600</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>14321</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>78182</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1436,6 +1478,15 @@
       <c r="BF5" t="n">
         <v>4638</v>
       </c>
+      <c r="BG5" t="n">
+        <v>5180</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>4781</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>4868</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1614,6 +1665,15 @@
       <c r="BF6" t="n">
         <v>28356</v>
       </c>
+      <c r="BG6" t="n">
+        <v>32930</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>26745</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>30600</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1792,6 +1852,15 @@
       <c r="BF7" t="n">
         <v>0</v>
       </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1970,6 +2039,15 @@
       <c r="BF8" t="n">
         <v>0</v>
       </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2148,6 +2226,15 @@
       <c r="BF9" t="n">
         <v>16938</v>
       </c>
+      <c r="BG9" t="n">
+        <v>20300</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>17452</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>12961</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2326,6 +2413,15 @@
       <c r="BF10" t="n">
         <v>1734</v>
       </c>
+      <c r="BG10" t="n">
+        <v>1620</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>1024</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1028</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2504,6 +2600,15 @@
       <c r="BF11" t="n">
         <v>10134</v>
       </c>
+      <c r="BG11" t="n">
+        <v>61252</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>42764</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>33592</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2682,6 +2787,15 @@
       <c r="BF12" t="n">
         <v>7838</v>
       </c>
+      <c r="BG12" t="n">
+        <v>315255.008</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>226976</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>217099.008</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2860,6 +2974,15 @@
       <c r="BF13" t="n">
         <v>0</v>
       </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3038,6 +3161,15 @@
       <c r="BF14" t="n">
         <v>0</v>
       </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3216,6 +3348,15 @@
       <c r="BF15" t="n">
         <v>299</v>
       </c>
+      <c r="BG15" t="n">
+        <v>312</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>315</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3394,6 +3535,15 @@
       <c r="BF16" t="n">
         <v>0</v>
       </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3572,6 +3722,15 @@
       <c r="BF17" t="n">
         <v>0</v>
       </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3750,6 +3909,15 @@
       <c r="BF18" t="n">
         <v>0</v>
       </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3928,6 +4096,15 @@
       <c r="BF19" t="n">
         <v>3032</v>
       </c>
+      <c r="BG19" t="n">
+        <v>4799</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>5102</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>3529</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4106,6 +4283,15 @@
       <c r="BF20" t="n">
         <v>0</v>
       </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4284,6 +4470,15 @@
       <c r="BF21" t="n">
         <v>0</v>
       </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4462,6 +4657,15 @@
       <c r="BF22" t="n">
         <v>0</v>
       </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4640,6 +4844,15 @@
       <c r="BF23" t="n">
         <v>2635220.992</v>
       </c>
+      <c r="BG23" t="n">
+        <v>2622000.896</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>2602675.968</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>2584496.128</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4818,6 +5031,15 @@
       <c r="BF24" t="n">
         <v>0</v>
       </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4996,6 +5218,15 @@
       <c r="BF25" t="n">
         <v>0</v>
       </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5174,6 +5405,15 @@
       <c r="BF26" t="n">
         <v>2732436.992</v>
       </c>
+      <c r="BG26" t="n">
+        <v>3076137.984</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>2936739.072</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>2962825.984</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5352,6 +5592,15 @@
       <c r="BF27" t="n">
         <v>462239.008</v>
       </c>
+      <c r="BG27" t="n">
+        <v>437913.984</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>473134.016</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>506687.008</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5530,6 +5779,15 @@
       <c r="BF28" t="n">
         <v>6650</v>
       </c>
+      <c r="BG28" t="n">
+        <v>7220</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>8766</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>6101</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5708,6 +5966,15 @@
       <c r="BF29" t="n">
         <v>59332</v>
       </c>
+      <c r="BG29" t="n">
+        <v>63750</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>46843</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>45795</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5886,6 +6153,15 @@
       <c r="BF30" t="n">
         <v>13509</v>
       </c>
+      <c r="BG30" t="n">
+        <v>15033</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>9511</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>6807</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6064,6 +6340,15 @@
       <c r="BF31" t="n">
         <v>150156.992</v>
       </c>
+      <c r="BG31" t="n">
+        <v>172754</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>225503.008</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>253178</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6242,6 +6527,15 @@
       <c r="BF32" t="n">
         <v>0</v>
       </c>
+      <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6420,6 +6714,15 @@
       <c r="BF33" t="n">
         <v>0</v>
       </c>
+      <c r="BG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6598,6 +6901,15 @@
       <c r="BF34" t="n">
         <v>232264</v>
       </c>
+      <c r="BG34" t="n">
+        <v>179156.992</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>182511.008</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>194806</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6776,6 +7088,15 @@
       <c r="BF35" t="n">
         <v>0</v>
       </c>
+      <c r="BG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6954,6 +7275,15 @@
       <c r="BF36" t="n">
         <v>327</v>
       </c>
+      <c r="BG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7132,6 +7462,15 @@
       <c r="BF37" t="n">
         <v>1463033.984</v>
       </c>
+      <c r="BG37" t="n">
+        <v>1705203.968</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>1592500.992</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1571192.064</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7310,6 +7649,15 @@
       <c r="BF38" t="n">
         <v>898228.992</v>
       </c>
+      <c r="BG38" t="n">
+        <v>901872</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>876820.992</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>876849.9840000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7488,6 +7836,15 @@
       <c r="BF39" t="n">
         <v>0</v>
       </c>
+      <c r="BG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7666,6 +8023,15 @@
       <c r="BF40" t="n">
         <v>337980</v>
       </c>
+      <c r="BG40" t="n">
+        <v>417232</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>407500</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>428267.008</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7844,6 +8210,15 @@
       <c r="BF41" t="n">
         <v>0</v>
       </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8022,6 +8397,15 @@
       <c r="BF42" t="n">
         <v>0</v>
       </c>
+      <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8200,6 +8584,15 @@
       <c r="BF43" t="n">
         <v>226824.992</v>
       </c>
+      <c r="BG43" t="n">
+        <v>386100</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>308180</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>266075.008</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8378,6 +8771,15 @@
       <c r="BF44" t="n">
         <v>0</v>
       </c>
+      <c r="BG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8556,6 +8958,15 @@
       <c r="BF45" t="n">
         <v>0</v>
       </c>
+      <c r="BG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8734,6 +9145,15 @@
       <c r="BF46" t="n">
         <v>0</v>
       </c>
+      <c r="BG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8912,6 +9332,15 @@
       <c r="BF47" t="n">
         <v>807164.032</v>
       </c>
+      <c r="BG47" t="n">
+        <v>933020.032</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>871104</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>884947.008</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9090,6 +9519,15 @@
       <c r="BF48" t="n">
         <v>4128636.928</v>
       </c>
+      <c r="BG48" t="n">
+        <v>4128636.928</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>4128636.928</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>4128636.928</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9268,6 +9706,15 @@
       <c r="BF49" t="n">
         <v>1</v>
       </c>
+      <c r="BG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9446,6 +9893,15 @@
       <c r="BF50" t="n">
         <v>0</v>
       </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9624,6 +10080,15 @@
       <c r="BF51" t="n">
         <v>0</v>
       </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9802,6 +10267,15 @@
       <c r="BF52" t="n">
         <v>-3321474.048</v>
       </c>
+      <c r="BG52" t="n">
+        <v>-3195618.048</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>-3257533.952</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>-3243691.008</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9980,6 +10454,15 @@
       <c r="BF53" t="n">
         <v>0</v>
       </c>
+      <c r="BG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10158,6 +10641,15 @@
       <c r="BF54" t="n">
         <v>0</v>
       </c>
+      <c r="BG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10336,6 +10828,15 @@
       <c r="BF55" t="n">
         <v>0</v>
       </c>
+      <c r="BG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10512,6 +11013,15 @@
         <v>0</v>
       </c>
       <c r="BF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10588,6 +11098,9 @@
       <c r="BD57" t="inlineStr"/>
       <c r="BE57" t="inlineStr"/>
       <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
+      <c r="BH57" t="inlineStr"/>
+      <c r="BI57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10662,6 +11175,9 @@
       <c r="BD58" t="inlineStr"/>
       <c r="BE58" t="inlineStr"/>
       <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
+      <c r="BH58" t="inlineStr"/>
+      <c r="BI58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10840,6 +11356,15 @@
       <c r="BF59" t="n">
         <v>57329</v>
       </c>
+      <c r="BG59" t="n">
+        <v>50584</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>42587</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>56022</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11018,6 +11543,15 @@
       <c r="BF60" t="n">
         <v>-52198</v>
       </c>
+      <c r="BG60" t="n">
+        <v>104706</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>-57538</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>-59112</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11196,6 +11730,15 @@
       <c r="BF61" t="n">
         <v>5131</v>
       </c>
+      <c r="BG61" t="n">
+        <v>155289.984</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>-14951</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>-3090</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11374,6 +11917,15 @@
       <c r="BF62" t="n">
         <v>0</v>
       </c>
+      <c r="BG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11551,6 +12103,15 @@
       </c>
       <c r="BF63" t="n">
         <v>-13981</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>-17934</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>-14421</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>-11615</v>
       </c>
     </row>
     <row r="64">
@@ -11718,6 +12279,15 @@
       <c r="BF64" t="n">
         <v>0</v>
       </c>
+      <c r="BG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11896,6 +12466,15 @@
       <c r="BF65" t="n">
         <v>0</v>
       </c>
+      <c r="BG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12074,6 +12653,15 @@
       <c r="BF66" t="n">
         <v>1675</v>
       </c>
+      <c r="BG66" t="n">
+        <v>71126</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>-1058</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>62834</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12252,6 +12840,15 @@
       <c r="BF67" t="n">
         <v>0</v>
       </c>
+      <c r="BG67" t="n">
+        <v>6878</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12430,6 +13027,15 @@
       <c r="BF68" t="n">
         <v>-38876</v>
       </c>
+      <c r="BG68" t="n">
+        <v>-31035</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>-33814</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>-35947</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12608,6 +13214,15 @@
       <c r="BF69" t="n">
         <v>1053</v>
       </c>
+      <c r="BG69" t="n">
+        <v>757</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>512</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1378</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12785,6 +13400,15 @@
       </c>
       <c r="BF70" t="n">
         <v>-39929</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>-31792.008</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>-34326</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>-37325</v>
       </c>
     </row>
     <row r="71">
@@ -12860,6 +13484,9 @@
       <c r="BD71" t="inlineStr"/>
       <c r="BE71" t="inlineStr"/>
       <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
+      <c r="BH71" t="inlineStr"/>
+      <c r="BI71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12934,6 +13561,9 @@
       <c r="BD72" t="inlineStr"/>
       <c r="BE72" t="inlineStr"/>
       <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
+      <c r="BH72" t="inlineStr"/>
+      <c r="BI72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13008,6 +13638,9 @@
       <c r="BD73" t="inlineStr"/>
       <c r="BE73" t="inlineStr"/>
       <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
+      <c r="BH73" t="inlineStr"/>
+      <c r="BI73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13186,6 +13819,15 @@
       <c r="BF74" t="n">
         <v>-46051</v>
       </c>
+      <c r="BG74" t="n">
+        <v>184324.992</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>-64244</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>12182</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13364,6 +14006,15 @@
       <c r="BF75" t="n">
         <v>-2207</v>
       </c>
+      <c r="BG75" t="n">
+        <v>-2193</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>-1791</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>-16551</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13541,6 +14192,15 @@
       </c>
       <c r="BF76" t="n">
         <v>335</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>-56276</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>4119</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>18212</v>
       </c>
     </row>
     <row r="77">
@@ -13616,6 +14276,9 @@
       <c r="BD77" t="inlineStr"/>
       <c r="BE77" t="inlineStr"/>
       <c r="BF77" t="inlineStr"/>
+      <c r="BG77" t="inlineStr"/>
+      <c r="BH77" t="inlineStr"/>
+      <c r="BI77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13690,6 +14353,9 @@
       <c r="BD78" t="inlineStr"/>
       <c r="BE78" t="inlineStr"/>
       <c r="BF78" t="inlineStr"/>
+      <c r="BG78" t="inlineStr"/>
+      <c r="BH78" t="inlineStr"/>
+      <c r="BI78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13868,6 +14534,15 @@
       <c r="BF79" t="n">
         <v>0</v>
       </c>
+      <c r="BG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14046,6 +14721,15 @@
       <c r="BF80" t="n">
         <v>-47923</v>
       </c>
+      <c r="BG80" t="n">
+        <v>125856</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>-61916</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>13843</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
